--- a/Data/Data Modelo/Casen/Codigos_CASEN.xlsx
+++ b/Data/Data Modelo/Casen/Codigos_CASEN.xlsx
@@ -728,7 +728,7 @@
   <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
